--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -922,12 +922,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -953,14 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -969,14 +1034,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -985,13 +1072,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,167 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -625,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -676,35 +622,263 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.1584</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -780,22 +954,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -874,22 +1048,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.01</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -907,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +1102,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -958,263 +1132,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1584</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010773</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城泰阳回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010774</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城泰阳回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1229,112 +1175,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +519,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -566,6 +583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -880,100 +1485,6 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1048,22 +1559,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1142,17 +1653,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1161,7 +1672,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1170,6 +1681,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002085-万丰奥威.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -551,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -583,6 +600,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1170,7 +2117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1485,100 +2432,6 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1653,22 +2506,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1747,17 +2600,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1766,7 +2619,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1775,6 +2628,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
